--- a/Documents/TestCase_002.xlsx
+++ b/Documents/TestCase_002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivantay/Automation/Others/HooqTV_Test/automation_practice_java/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0745D943-D3DB-7641-8C64-89F85DA086BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F00D1AF0-2F7F-6742-9541-6FA80CF2224A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="4220" windowWidth="27240" windowHeight="16440" xr2:uid="{606C37DF-B12F-7D43-8252-8773D7000532}"/>
+    <workbookView minimized="1" xWindow="5280" yWindow="2040" windowWidth="27240" windowHeight="16440" xr2:uid="{606C37DF-B12F-7D43-8252-8773D7000532}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="A3:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
